--- a/tools/ECONET_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/ECONET_IP-Planning-Hardware-Requirements.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="85">
   <si>
     <t>IP Address</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>10.10.0.61</t>
+  </si>
+  <si>
+    <t>IP PLANNING - CONTROLLER</t>
   </si>
 </sst>
 </file>
@@ -605,13 +608,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,10 +629,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,43 +653,28 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,16 +683,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,25 +692,31 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,44 +1021,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1105,399 +1108,446 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64"/>
+      <c r="G5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="34">
+      <c r="J5" s="54">
         <v>2</v>
       </c>
-      <c r="K5" s="34">
-        <v>1</v>
-      </c>
-      <c r="L5" s="58">
+      <c r="K5" s="54">
+        <v>1</v>
+      </c>
+      <c r="L5" s="51">
         <v>20</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39"/>
+      <c r="G7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="G11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64"/>
+      <c r="G13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="34">
+      <c r="J13" s="54">
         <v>2</v>
       </c>
-      <c r="K13" s="34">
-        <v>1</v>
-      </c>
-      <c r="L13" s="58">
+      <c r="K13" s="54">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51">
         <v>20</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="39"/>
+      <c r="G15" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="37"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
+      <c r="G19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
     <mergeCell ref="P13:P20"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -1514,53 +1564,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1591,44 +1594,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1678,319 +1681,369 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="34">
+      <c r="G5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="54">
         <v>2</v>
       </c>
-      <c r="K5" s="34">
-        <v>1</v>
-      </c>
-      <c r="L5" s="58">
+      <c r="K5" s="54">
+        <v>1</v>
+      </c>
+      <c r="L5" s="51">
         <v>20</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="34">
+      <c r="G9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="54">
         <v>2</v>
       </c>
-      <c r="K9" s="34">
-        <v>1</v>
-      </c>
-      <c r="L9" s="58">
+      <c r="K9" s="54">
+        <v>1</v>
+      </c>
+      <c r="L9" s="51">
         <v>20</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="34">
+      <c r="G13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="54">
         <v>2</v>
       </c>
-      <c r="K13" s="34">
-        <v>1</v>
-      </c>
-      <c r="L13" s="58">
+      <c r="K13" s="54">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51">
         <v>20</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="G15" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -2007,56 +2060,6 @@
     <mergeCell ref="M5:M8"/>
     <mergeCell ref="N5:N8"/>
     <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J9:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2087,44 +2090,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2174,319 +2177,369 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="34">
+      <c r="G5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="54">
         <v>2</v>
       </c>
-      <c r="K5" s="34">
-        <v>1</v>
-      </c>
-      <c r="L5" s="58">
+      <c r="K5" s="54">
+        <v>1</v>
+      </c>
+      <c r="L5" s="51">
         <v>20</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="34">
+      <c r="G9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="54">
         <v>2</v>
       </c>
-      <c r="K9" s="34">
-        <v>1</v>
-      </c>
-      <c r="L9" s="58">
+      <c r="K9" s="54">
+        <v>1</v>
+      </c>
+      <c r="L9" s="51">
         <v>20</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="34">
+      <c r="G13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="54">
         <v>2</v>
       </c>
-      <c r="K13" s="34">
-        <v>1</v>
-      </c>
-      <c r="L13" s="58">
+      <c r="K13" s="54">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51">
         <v>20</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="G15" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2503,56 +2556,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2563,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2583,44 +2586,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
+      <c r="B2" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2670,602 +2673,665 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64"/>
+      <c r="G5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="34">
+      <c r="J5" s="54">
         <v>2</v>
       </c>
-      <c r="K5" s="34">
-        <v>1</v>
-      </c>
-      <c r="L5" s="58">
+      <c r="K5" s="54">
+        <v>1</v>
+      </c>
+      <c r="L5" s="51">
         <v>20</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39"/>
+      <c r="G7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="G11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64"/>
+      <c r="G13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="34">
+      <c r="J13" s="54">
         <v>2</v>
       </c>
-      <c r="K13" s="34">
-        <v>1</v>
-      </c>
-      <c r="L13" s="58">
+      <c r="K13" s="54">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51">
         <v>20</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="39"/>
+      <c r="G15" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="37"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
+      <c r="G19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="64"/>
+      <c r="G21" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="34">
+      <c r="J21" s="54">
         <v>2</v>
       </c>
-      <c r="K21" s="34">
-        <v>1</v>
-      </c>
-      <c r="L21" s="58">
+      <c r="K21" s="54">
+        <v>1</v>
+      </c>
+      <c r="L21" s="51">
         <v>20</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="39"/>
+      <c r="G23" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="37"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="58"/>
+      <c r="C27" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
+      <c r="G27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="P21:P28"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
@@ -3282,76 +3348,13 @@
     <mergeCell ref="M21:M28"/>
     <mergeCell ref="N21:N28"/>
     <mergeCell ref="O21:O28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tools/ECONET_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/ECONET_IP-Planning-Hardware-Requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ECONET_LB_Nginx" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="86">
   <si>
     <t>IP Address</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>IP PLANNING - CONTROLLER</t>
+  </si>
+  <si>
+    <t>Hardware LAB</t>
   </si>
 </sst>
 </file>
@@ -608,19 +611,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,10 +626,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,82 +713,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,44 +1024,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1108,411 +1111,434 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49"/>
+      <c r="G5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="54">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="54">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51">
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58">
         <v>20</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="39" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37"/>
+      <c r="G7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="G11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49"/>
+      <c r="G13" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="54">
+      <c r="J13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="54">
-        <v>1</v>
-      </c>
-      <c r="L13" s="51">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="L13" s="58">
         <v>20</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="39" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="37"/>
+      <c r="G15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="39"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="41" t="s">
+      <c r="G17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="G19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -1529,41 +1555,18 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="P5:P12"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1594,44 +1597,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1681,319 +1684,369 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="54">
+      <c r="G5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="54">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51">
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58">
         <v>20</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="54">
+      <c r="G9" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="34">
         <v>2</v>
       </c>
-      <c r="K9" s="54">
-        <v>1</v>
-      </c>
-      <c r="L9" s="51">
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
+      <c r="L9" s="58">
         <v>20</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="54">
+      <c r="G13" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="54">
-        <v>1</v>
-      </c>
-      <c r="L13" s="51">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="L13" s="58">
         <v>20</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41" t="s">
+      <c r="G15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="P13:P16"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E11:E12"/>
@@ -2010,56 +2063,6 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="J9:J12"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2070,13 +2073,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="9" customWidth="1"/>
@@ -2086,48 +2089,49 @@
     <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" customWidth="1"/>
+    <col min="13" max="16" width="9.5703125" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2177,319 +2181,369 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="54">
+      <c r="G5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="54">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51">
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58">
         <v>20</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="54">
+      <c r="G9" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="34">
         <v>2</v>
       </c>
-      <c r="K9" s="54">
-        <v>1</v>
-      </c>
-      <c r="L9" s="51">
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
+      <c r="L9" s="58">
         <v>20</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="54">
+      <c r="G13" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="54">
-        <v>1</v>
-      </c>
-      <c r="L13" s="51">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="L13" s="58">
         <v>20</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="41" t="s">
+      <c r="G15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="59"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
     <mergeCell ref="C15:C16"/>
@@ -2506,56 +2560,6 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2566,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
@@ -2586,44 +2590,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2673,595 +2677,672 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49"/>
+      <c r="G5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="54">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="54">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51">
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58">
         <v>20</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="39" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37"/>
+      <c r="G7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="G11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49"/>
+      <c r="G13" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="54">
+      <c r="J13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="54">
-        <v>1</v>
-      </c>
-      <c r="L13" s="51">
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+      <c r="L13" s="58">
         <v>20</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="39" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="37"/>
+      <c r="G15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="39"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="41" t="s">
+      <c r="G17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="G19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="49"/>
+      <c r="G21" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="64"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="54">
+      <c r="J21" s="34">
         <v>2</v>
       </c>
-      <c r="K21" s="54">
-        <v>1</v>
-      </c>
-      <c r="L21" s="51">
+      <c r="K21" s="34">
+        <v>1</v>
+      </c>
+      <c r="L21" s="58">
         <v>20</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="39" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="37"/>
+      <c r="G23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="41" t="s">
+      <c r="G25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="G27" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="P21:P28"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="L21:L28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="N21:N28"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="P5:P12"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -3278,83 +3359,6 @@
     <mergeCell ref="M5:M12"/>
     <mergeCell ref="N5:N12"/>
     <mergeCell ref="O5:O12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P21:P28"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="J21:J28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="N21:N28"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
